--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:02:07+00:00</t>
+    <t>2021-12-10T20:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:11:58+00:00</t>
+    <t>2021-12-10T22:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:42:34+00:00</t>
+    <t>2021-12-15T00:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T00:34:29+00:00</t>
+    <t>2021-12-21T21:05:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T21:05:49+00:00</t>
+    <t>2022-01-10T18:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T18:47:14+00:00</t>
+    <t>2022-01-10T20:19:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T20:19:56+00:00</t>
+    <t>2022-01-10T22:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T22:39:32+00:00</t>
+    <t>2022-01-10T23:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T23:17:23+00:00</t>
+    <t>2022-01-14T00:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T00:18:13+00:00</t>
+    <t>2022-01-16T20:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T20:26:17+00:00</t>
+    <t>2022-01-18T14:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:34:22+00:00</t>
+    <t>2022-01-19T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$101</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="540">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T20:52:52+00:00</t>
+    <t>2022-01-24T12:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1677,6 +1677,31 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReferenceQR|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunizationRecommendation)
+</t>
+  </si>
+  <si>
+    <t>testresult</t>
+  </si>
+  <si>
+    <t>Vaccination Test Results Section</t>
+  </si>
+  <si>
+    <t>Vaccination Test Results Section lists the relvant test results received by the patient</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="30954-2"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCObservation)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCObservation|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReferenceQR|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCTest|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDiagnosticReport|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCSpecimen|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCProcedure)
 </t>
   </si>
 </sst>
@@ -1997,7 +2022,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN87"/>
+  <dimension ref="A1:AN101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -12008,8 +12033,1614 @@
         <v>77</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN87">
+  <autoFilter ref="A1:AN101">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12019,7 +13650,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI100">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T12:54:27+00:00</t>
+    <t>2022-01-24T13:03:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T13:03:50+00:00</t>
+    <t>2022-01-24T15:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T15:52:44+00:00</t>
+    <t>2022-01-24T18:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T18:58:51+00:00</t>
+    <t>2022-01-24T20:22:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCVSComposition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T20:22:18+00:00</t>
+    <t>2022-01-25T14:32:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
